--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,10 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha7</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H2">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03932533333333333</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N2">
-        <v>0.117976</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O2">
-        <v>0.03588667238536742</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P2">
-        <v>0.03588667238536743</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q2">
-        <v>0.02938032356977778</v>
+        <v>0.300728412677</v>
       </c>
       <c r="R2">
-        <v>0.264422912128</v>
+        <v>2.706555714093</v>
       </c>
       <c r="S2">
-        <v>0.01668203236243175</v>
+        <v>0.1333514125806831</v>
       </c>
       <c r="T2">
-        <v>0.01668203236243176</v>
+        <v>0.1333514125806831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H3">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I3">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J3">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +629,22 @@
         <v>0.727233</v>
       </c>
       <c r="O3">
-        <v>0.2212142505155957</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P3">
-        <v>0.2212142505155957</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q3">
-        <v>0.1811075206026667</v>
+        <v>0.286229454771</v>
       </c>
       <c r="R3">
-        <v>1.629967685424</v>
+        <v>2.576065092939</v>
       </c>
       <c r="S3">
-        <v>0.1028321390878512</v>
+        <v>0.1269221679991623</v>
       </c>
       <c r="T3">
-        <v>0.1028321390878512</v>
+        <v>0.1269221679991623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H4">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I4">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J4">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.743817</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N4">
-        <v>2.231451</v>
+        <v>0.039967</v>
       </c>
       <c r="O4">
-        <v>0.6787766238980854</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P4">
-        <v>0.6787766238980855</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q4">
-        <v>0.555712622992</v>
+        <v>0.015730491629</v>
       </c>
       <c r="R4">
-        <v>5.001413606928</v>
+        <v>0.141574424661</v>
       </c>
       <c r="S4">
-        <v>0.3155314453548239</v>
+        <v>0.006975341174592625</v>
       </c>
       <c r="T4">
-        <v>0.315531445354824</v>
+        <v>0.006975341174592625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,60 +729,60 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H5">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I5">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J5">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07026666666666666</v>
+        <v>0.5706163333333333</v>
       </c>
       <c r="N5">
-        <v>0.2108</v>
+        <v>1.711849</v>
       </c>
       <c r="O5">
-        <v>0.06412245320095149</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="P5">
-        <v>0.06412245320095149</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="Q5">
-        <v>0.05249688248888889</v>
+        <v>0.6737615123629999</v>
       </c>
       <c r="R5">
-        <v>0.4724719424</v>
+        <v>6.063853611267</v>
       </c>
       <c r="S5">
-        <v>0.02980752375059855</v>
+        <v>0.2987647512794358</v>
       </c>
       <c r="T5">
-        <v>0.02980752375059855</v>
+        <v>0.2987647512794358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4799286666666667</v>
+        <v>1.180761</v>
       </c>
       <c r="H6">
-        <v>1.439786</v>
+        <v>3.542283</v>
       </c>
       <c r="I6">
-        <v>0.2986127170267525</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J6">
-        <v>0.2986127170267525</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.03932533333333333</v>
+        <v>0.08468566666666666</v>
       </c>
       <c r="N6">
-        <v>0.117976</v>
+        <v>0.254057</v>
       </c>
       <c r="O6">
-        <v>0.03588667238536742</v>
+        <v>0.07264630872272121</v>
       </c>
       <c r="P6">
-        <v>0.03588667238536743</v>
+        <v>0.0726463087227212</v>
       </c>
       <c r="Q6">
-        <v>0.01887335479288889</v>
+        <v>0.09999353245899999</v>
       </c>
       <c r="R6">
-        <v>0.169860193136</v>
+        <v>0.8999417921309999</v>
       </c>
       <c r="S6">
-        <v>0.01071621674604349</v>
+        <v>0.04433993676767028</v>
       </c>
       <c r="T6">
-        <v>0.01071621674604349</v>
+        <v>0.04433993676767028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +859,40 @@
         <v>1.439786</v>
       </c>
       <c r="I7">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J7">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.242411</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N7">
-        <v>0.727233</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O7">
-        <v>0.2212142505155957</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P7">
-        <v>0.2212142505155957</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q7">
-        <v>0.1163399880153334</v>
+        <v>0.1222331920895556</v>
       </c>
       <c r="R7">
-        <v>1.047059892138</v>
+        <v>1.100098728806</v>
       </c>
       <c r="S7">
-        <v>0.06605738839149869</v>
+        <v>0.05420162559397185</v>
       </c>
       <c r="T7">
-        <v>0.06605738839149869</v>
+        <v>0.05420162559397185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +921,40 @@
         <v>1.439786</v>
       </c>
       <c r="I8">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J8">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.743817</v>
+        <v>0.242411</v>
       </c>
       <c r="N8">
-        <v>2.231451</v>
+        <v>0.727233</v>
       </c>
       <c r="O8">
-        <v>0.6787766238980854</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P8">
-        <v>0.6787766238980855</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q8">
-        <v>0.356979101054</v>
+        <v>0.1163399880153333</v>
       </c>
       <c r="R8">
-        <v>3.212811909486</v>
+        <v>1.047059892138</v>
       </c>
       <c r="S8">
-        <v>0.2026913319164533</v>
+        <v>0.05158841362331634</v>
       </c>
       <c r="T8">
-        <v>0.2026913319164534</v>
+        <v>0.05158841362331633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +983,10 @@
         <v>1.439786</v>
       </c>
       <c r="I9">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J9">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,43 +995,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07026666666666666</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N9">
-        <v>0.2108</v>
+        <v>0.039967</v>
       </c>
       <c r="O9">
-        <v>0.06412245320095149</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P9">
-        <v>0.06412245320095149</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q9">
-        <v>0.03372298764444445</v>
+        <v>0.006393769673555556</v>
       </c>
       <c r="R9">
-        <v>0.3035068888</v>
+        <v>0.057543927062</v>
       </c>
       <c r="S9">
-        <v>0.0191477799727569</v>
+        <v>0.002835176796546752</v>
       </c>
       <c r="T9">
-        <v>0.0191477799727569</v>
+        <v>0.002835176796546751</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,60 +1039,60 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3801563333333333</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H10">
-        <v>1.140469</v>
+        <v>1.439786</v>
       </c>
       <c r="I10">
-        <v>0.2365341424175421</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J10">
-        <v>0.2365341424175421</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03932533333333333</v>
+        <v>0.5706163333333333</v>
       </c>
       <c r="N10">
-        <v>0.117976</v>
+        <v>1.711849</v>
       </c>
       <c r="O10">
-        <v>0.03588667238536742</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="P10">
-        <v>0.03588667238536743</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="Q10">
-        <v>0.01494977452711111</v>
+        <v>0.2738551360348889</v>
       </c>
       <c r="R10">
-        <v>0.134547970744</v>
+        <v>2.464696224314</v>
       </c>
       <c r="S10">
-        <v>0.008488423276892173</v>
+        <v>0.1214350480144059</v>
       </c>
       <c r="T10">
-        <v>0.008488423276892174</v>
+        <v>0.1214350480144059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3801563333333333</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H11">
-        <v>1.140469</v>
+        <v>1.439786</v>
       </c>
       <c r="I11">
-        <v>0.2365341424175421</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J11">
-        <v>0.2365341424175421</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.242411</v>
+        <v>0.08468566666666666</v>
       </c>
       <c r="N11">
-        <v>0.727233</v>
+        <v>0.254057</v>
       </c>
       <c r="O11">
-        <v>0.2212142505155957</v>
+        <v>0.07264630872272121</v>
       </c>
       <c r="P11">
-        <v>0.2212142505155957</v>
+        <v>0.0726463087227212</v>
       </c>
       <c r="Q11">
-        <v>0.09215407691966666</v>
+        <v>0.04064307908911111</v>
       </c>
       <c r="R11">
-        <v>0.829386692277</v>
+        <v>0.365787711802</v>
       </c>
       <c r="S11">
-        <v>0.05232472303624574</v>
+        <v>0.0180222811669697</v>
       </c>
       <c r="T11">
-        <v>0.05232472303624573</v>
+        <v>0.0180222811669697</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H12">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I12">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J12">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.743817</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N12">
-        <v>2.231451</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O12">
-        <v>0.6787766238980854</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P12">
-        <v>0.6787766238980855</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q12">
-        <v>0.282766743391</v>
+        <v>0.05215845784722223</v>
       </c>
       <c r="R12">
-        <v>2.544900690519</v>
+        <v>0.4694261206250001</v>
       </c>
       <c r="S12">
-        <v>0.1605538466268081</v>
+        <v>0.02312852307516288</v>
       </c>
       <c r="T12">
-        <v>0.1605538466268082</v>
+        <v>0.02312852307516288</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1210,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2047916666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.614375</v>
+      </c>
+      <c r="I13">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="J13">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.242411</v>
+      </c>
+      <c r="N13">
+        <v>0.727233</v>
+      </c>
+      <c r="O13">
+        <v>0.2079485825281363</v>
+      </c>
+      <c r="P13">
+        <v>0.2079485825281362</v>
+      </c>
+      <c r="Q13">
+        <v>0.04964375270833334</v>
+      </c>
+      <c r="R13">
+        <v>0.446793774375</v>
+      </c>
+      <c r="S13">
+        <v>0.02201343228773233</v>
+      </c>
+      <c r="T13">
+        <v>0.02201343228773232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2047916666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.614375</v>
+      </c>
+      <c r="I14">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="J14">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.039967</v>
+      </c>
+      <c r="O14">
+        <v>0.01142836064631559</v>
+      </c>
+      <c r="P14">
+        <v>0.01142836064631558</v>
+      </c>
+      <c r="Q14">
+        <v>0.002728302847222222</v>
+      </c>
+      <c r="R14">
+        <v>0.024554725625</v>
+      </c>
+      <c r="S14">
+        <v>0.001209806001988081</v>
+      </c>
+      <c r="T14">
+        <v>0.00120980600198808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2047916666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.614375</v>
+      </c>
+      <c r="I15">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="J15">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5706163333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.711849</v>
+      </c>
+      <c r="O15">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="P15">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="Q15">
+        <v>0.1168574699305556</v>
+      </c>
+      <c r="R15">
+        <v>1.051717229375</v>
+      </c>
+      <c r="S15">
+        <v>0.05181787961811729</v>
+      </c>
+      <c r="T15">
+        <v>0.05181787961811728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2047916666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.614375</v>
+      </c>
+      <c r="I16">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="J16">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.08468566666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.254057</v>
+      </c>
+      <c r="O16">
+        <v>0.07264630872272121</v>
+      </c>
+      <c r="P16">
+        <v>0.0726463087227212</v>
+      </c>
+      <c r="Q16">
+        <v>0.01734291881944445</v>
+      </c>
+      <c r="R16">
+        <v>0.156086269375</v>
+      </c>
+      <c r="S16">
+        <v>0.007690336613883598</v>
+      </c>
+      <c r="T16">
+        <v>0.007690336613883596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.3801563333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.140469</v>
-      </c>
-      <c r="I13">
-        <v>0.2365341424175421</v>
-      </c>
-      <c r="J13">
-        <v>0.2365341424175421</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.07026666666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.2108</v>
-      </c>
-      <c r="O13">
-        <v>0.06412245320095149</v>
-      </c>
-      <c r="P13">
-        <v>0.06412245320095149</v>
-      </c>
-      <c r="Q13">
-        <v>0.02671231835555555</v>
-      </c>
-      <c r="R13">
-        <v>0.2404108652</v>
-      </c>
-      <c r="S13">
-        <v>0.01516714947759604</v>
-      </c>
-      <c r="T13">
-        <v>0.01516714947759604</v>
+      <c r="G17">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.207213</v>
+      </c>
+      <c r="I17">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J17">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2546903333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.7640710000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.2184822215175269</v>
+      </c>
+      <c r="P17">
+        <v>0.2184822215175269</v>
+      </c>
+      <c r="Q17">
+        <v>0.01759171601366667</v>
+      </c>
+      <c r="R17">
+        <v>0.158325444123</v>
+      </c>
+      <c r="S17">
+        <v>0.007800660267709014</v>
+      </c>
+      <c r="T17">
+        <v>0.007800660267709014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.207213</v>
+      </c>
+      <c r="I18">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J18">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.242411</v>
+      </c>
+      <c r="N18">
+        <v>0.727233</v>
+      </c>
+      <c r="O18">
+        <v>0.2079485825281363</v>
+      </c>
+      <c r="P18">
+        <v>0.2079485825281362</v>
+      </c>
+      <c r="Q18">
+        <v>0.016743570181</v>
+      </c>
+      <c r="R18">
+        <v>0.150692131629</v>
+      </c>
+      <c r="S18">
+        <v>0.007424568617925336</v>
+      </c>
+      <c r="T18">
+        <v>0.007424568617925334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.207213</v>
+      </c>
+      <c r="I19">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J19">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.039967</v>
+      </c>
+      <c r="O19">
+        <v>0.01142836064631559</v>
+      </c>
+      <c r="P19">
+        <v>0.01142836064631558</v>
+      </c>
+      <c r="Q19">
+        <v>0.0009201868856666668</v>
+      </c>
+      <c r="R19">
+        <v>0.008281681971000002</v>
+      </c>
+      <c r="S19">
+        <v>0.000408036673188128</v>
+      </c>
+      <c r="T19">
+        <v>0.000408036673188128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.207213</v>
+      </c>
+      <c r="I20">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J20">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.5706163333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.711849</v>
+      </c>
+      <c r="O20">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="P20">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="Q20">
+        <v>0.03941304075966667</v>
+      </c>
+      <c r="R20">
+        <v>0.354717366837</v>
+      </c>
+      <c r="S20">
+        <v>0.0174768476733411</v>
+      </c>
+      <c r="T20">
+        <v>0.0174768476733411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.207213</v>
+      </c>
+      <c r="I21">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J21">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.08468566666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.254057</v>
+      </c>
+      <c r="O21">
+        <v>0.07264630872272121</v>
+      </c>
+      <c r="P21">
+        <v>0.0726463087227212</v>
+      </c>
+      <c r="Q21">
+        <v>0.005849323682333333</v>
+      </c>
+      <c r="R21">
+        <v>0.052643913141</v>
+      </c>
+      <c r="S21">
+        <v>0.002593754174197619</v>
+      </c>
+      <c r="T21">
+        <v>0.002593754174197618</v>
       </c>
     </row>
   </sheetData>
